--- a/ig/sd-add-ext-consequences-principales-et-secondaires/CodeSystem-eclaire-study-title-type-code-system.xlsx
+++ b/ig/sd-add-ext-consequences-principales-et-secondaires/CodeSystem-eclaire-study-title-type-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T15:05:55+00:00</t>
+    <t>2024-02-09T16:27:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-ext-consequences-principales-et-secondaires/CodeSystem-eclaire-study-title-type-code-system.xlsx
+++ b/ig/sd-add-ext-consequences-principales-et-secondaires/CodeSystem-eclaire-study-title-type-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T16:27:19+00:00</t>
+    <t>2024-02-09T16:53:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-ext-consequences-principales-et-secondaires/CodeSystem-eclaire-study-title-type-code-system.xlsx
+++ b/ig/sd-add-ext-consequences-principales-et-secondaires/CodeSystem-eclaire-study-title-type-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T16:53:12+00:00</t>
+    <t>2024-02-10T11:32:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-ext-consequences-principales-et-secondaires/CodeSystem-eclaire-study-title-type-code-system.xlsx
+++ b/ig/sd-add-ext-consequences-principales-et-secondaires/CodeSystem-eclaire-study-title-type-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-10T11:32:40+00:00</t>
+    <t>2024-02-12T07:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-ext-consequences-principales-et-secondaires/CodeSystem-eclaire-study-title-type-code-system.xlsx
+++ b/ig/sd-add-ext-consequences-principales-et-secondaires/CodeSystem-eclaire-study-title-type-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T07:45:47+00:00</t>
+    <t>2024-02-12T07:58:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-ext-consequences-principales-et-secondaires/CodeSystem-eclaire-study-title-type-code-system.xlsx
+++ b/ig/sd-add-ext-consequences-principales-et-secondaires/CodeSystem-eclaire-study-title-type-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T07:58:20+00:00</t>
+    <t>2024-02-12T09:03:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-ext-consequences-principales-et-secondaires/CodeSystem-eclaire-study-title-type-code-system.xlsx
+++ b/ig/sd-add-ext-consequences-principales-et-secondaires/CodeSystem-eclaire-study-title-type-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T09:03:44+00:00</t>
+    <t>2024-02-12T09:34:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
